--- a/資料/設計書/メモ/モグラ出現率.xlsx
+++ b/資料/設計書/メモ/モグラ出現率.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012A5927-205F-4455-BCE5-EB26A03F4200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261F1026-C4C3-4A4B-A009-33EB4ADFC766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8800" xr2:uid="{7EE0F44E-B430-4B0F-8791-8E1E81ABB88B}"/>
   </bookViews>
@@ -149,14 +149,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>難易度
-(easy:0.5,normal:1,hard:1.5)</t>
-    <rPh sb="0" eb="3">
-      <t>ナンイド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>基準出現率(%)</t>
     <rPh sb="0" eb="2">
       <t>キジュン</t>
@@ -246,19 +238,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>総モグラ出現数</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>モグラの穴1つ当たりの出現数</t>
     <rPh sb="4" eb="5">
       <t>アナ</t>
@@ -303,6 +282,27 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総モグラ出現数(easy)</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>難易度
+(easy:1,normal:2,hard:3)</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -365,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,6 +383,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B878D0-B8DE-4C9F-A95E-A6FE00D37595}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -724,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -733,73 +736,76 @@
       </c>
       <c r="E2" s="2">
         <f>$B$8*$B$9*2^(($B$10-D2)/60*$B$11)</f>
-        <v>6.3043255190125935E-2</v>
+        <v>7.0588235294117646E-2</v>
       </c>
       <c r="F2" s="4">
         <f>2^(($B$10-D2)/60*$B$11)</f>
-        <v>1.4142135623730951</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <f>INT(32767*E2)</f>
-        <v>2065</v>
-      </c>
+        <v>2312</v>
+      </c>
+      <c r="H2" s="6"/>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="2">
         <f>$B$8*$B$9*2^(($B$10-D3)/60*$B$11)</f>
-        <v>6.231914164412497E-2</v>
+        <v>6.8975997771829126E-2</v>
       </c>
       <c r="F3" s="4">
         <f>2^(($B$10-D3)/60*$B$11)</f>
-        <v>1.3979699341790195</v>
+        <v>1.9543199368684918</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G62" si="0">INT(32767*E3)</f>
-        <v>2042</v>
-      </c>
+        <v>2260</v>
+      </c>
+      <c r="H3" s="6"/>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <f>INT(150/4)</f>
-        <v>37</v>
+        <f>INT(B3/4)</f>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:E62" si="1">$B$8*$B$9*2^(($B$10-D4)/60*$B$11)</f>
-        <v>6.1603345251575563E-2</v>
+        <v>6.7400583805441158E-2</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F62" si="2">2^(($B$10-D4)/60*$B$11)</f>
-        <v>1.381912879967776</v>
+        <v>1.909683207820833</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
+        <v>2208</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>500</v>
@@ -809,16 +815,17 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>6.0895770481822452E-2</v>
+        <v>6.586115234377464E-2</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="2"/>
-        <v>1.3660402567543954</v>
+        <v>1.8660659830736148</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1995</v>
-      </c>
+        <v>2158</v>
+      </c>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
@@ -832,16 +839,17 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>6.0196322901473531E-2</v>
+        <v>6.4356881545285891E-2</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="2"/>
-        <v>1.35034994616819</v>
+        <v>1.8234449771164336</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1972</v>
-      </c>
+        <v>2108</v>
+      </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
@@ -849,74 +857,77 @@
       </c>
       <c r="B7">
         <f>(60000-(B5*B4))/B6</f>
-        <v>415</v>
+        <v>510</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>5.9504909161796717E-2</v>
+        <v>6.2886968339318061E-2</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>1.3348398541700344</v>
+        <v>1.7817974362806785</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1949</v>
-      </c>
+        <v>2060</v>
+      </c>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <f>B4/B7</f>
-        <v>8.91566265060241E-2</v>
+        <v>3.5294117647058823E-2</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>5.8821436986261549E-2</v>
+        <v>6.1450627997373469E-2</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="2"/>
-        <v>1.3195079107728942</v>
+        <v>1.7411011265922482</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1927</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>5.8145815158223944E-2</v>
+        <v>6.0047093714178046E-2</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="2"/>
-        <v>1.3043520697655642</v>
+        <v>1.7013343219017114</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1905</v>
-      </c>
+        <v>1967</v>
+      </c>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -926,39 +937,41 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>5.7477953508752323E-2</v>
+        <v>5.8675616198314427E-2</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
-        <v>1.2893703084395791</v>
+        <v>1.6624757922855755</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>1883</v>
-      </c>
+        <v>1922</v>
+      </c>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>5.6817762904593609E-2</v>
+        <v>5.7335463272204859E-2</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="2"/>
-        <v>1.274560627319262</v>
+        <v>1.6245047927124709</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>1861</v>
-      </c>
+        <v>1878</v>
+      </c>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D12">
@@ -966,16 +979,17 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>5.6165155236277485E-2</v>
+        <v>5.6025919481230563E-2</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>1.2599210498948732</v>
+        <v>1.5874010519681994</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>1840</v>
-      </c>
+        <v>1835</v>
+      </c>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
@@ -983,23 +997,24 @@
       </c>
       <c r="B13" s="2">
         <f>E62</f>
-        <v>3.1521627595062961E-2</v>
+        <v>1.7647058823529412E-2</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>5.5520043406357168E-2</v>
+        <v>5.4746285711778871E-2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="2"/>
-        <v>1.2454496223588229</v>
+        <v>1.5511447618337346</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1819</v>
-      </c>
+        <v>1793</v>
+      </c>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
@@ -1007,23 +1022,24 @@
       </c>
       <c r="B14" s="2">
         <f>E32</f>
-        <v>4.457831325301205E-2</v>
+        <v>3.5294117647058823E-2</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>5.4882341317785431E-2</v>
+        <v>5.3495878818014049E-2</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="2"/>
-        <v>1.2311444133449163</v>
+        <v>1.515716566510398</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1798</v>
-      </c>
+        <v>1752</v>
+      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
@@ -1031,23 +1047,24 @@
       </c>
       <c r="B15" s="2">
         <f>E12</f>
-        <v>5.6165155236277485E-2</v>
+        <v>5.6025919481230563E-2</v>
       </c>
       <c r="D15">
         <v>13</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>5.4251963862423938E-2</v>
+        <v>5.2274031257172851E-2</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="2"/>
-        <v>1.217003513670591</v>
+        <v>1.4810975522865641</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>1777</v>
-      </c>
+        <v>1712</v>
+      </c>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D16">
@@ -1055,279 +1072,295 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>5.3628826909684721E-2</v>
+        <v>5.1080090733189809E-2</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="2"/>
-        <v>1.2030250360821166</v>
+        <v>1.4472692374403779</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1673</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D17">
         <v>15</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>5.3012847295302021E-2</v>
+        <v>4.9913419848462183E-2</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="2"/>
-        <v>1.189207115002721</v>
+        <v>1.4142135623730951</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1635</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D18">
         <v>16</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>5.240394281023316E-2</v>
+        <v>4.8773395763568567E-2</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="2"/>
-        <v>1.1755479062836087</v>
+        <v>1.381912879967776</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1598</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D19">
         <v>17</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>5.1802032189686834E-2</v>
+        <v>4.7659409864759646E-2</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="2"/>
-        <v>1.1620455869578397</v>
+        <v>1.35034994616819</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1561</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>5.1207035102277469E-2</v>
+        <v>4.6570867439043324E-2</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="2"/>
-        <v>1.1486983549970351</v>
+        <v>1.3195079107728942</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1525</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>5.0618872139304175E-2</v>
+        <v>4.5507187356691028E-2</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="2"/>
-        <v>1.1355044290708773</v>
+        <v>1.2893703084395791</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1491</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D22">
         <v>20</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>5.0037464804152776E-2</v>
+        <v>4.4467801760995525E-2</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="2"/>
-        <v>1.122462048309373</v>
+        <v>1.2599210498948732</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1457</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D23">
         <v>21</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>4.94627355018196E-2</v>
+        <v>4.3452155765114693E-2</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="2"/>
-        <v>1.1095694720678451</v>
+        <v>1.2311444133449163</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1423</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>4.8894607528555616E-2</v>
+        <v>4.245970715583941E-2</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="2"/>
-        <v>1.0968249796946259</v>
+        <v>1.2030250360821166</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1391</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D25">
         <v>23</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>4.8333005061629498E-2</v>
+        <v>4.1489926104127363E-2</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="2"/>
-        <v>1.0842268703014184</v>
+        <v>1.1755479062836087</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1359</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D26">
         <v>24</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>4.7777853149208252E-2</v>
+        <v>4.0542294882248295E-2</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="2"/>
-        <v>1.0717734625362931</v>
+        <v>1.1486983549970351</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1328</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>4.722907770035413E-2</v>
+        <v>3.9616307587389633E-2</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="2"/>
-        <v>1.0594630943592953</v>
+        <v>1.122462048309373</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1298</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D28">
         <v>26</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>4.6686605475136374E-2</v>
+        <v>3.8711469871575033E-2</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="2"/>
-        <v>1.0472941228206267</v>
+        <v>1.0968249796946259</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1268</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D29">
         <v>27</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>4.6150364074856592E-2</v>
+        <v>3.7827298677751524E-2</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="2"/>
-        <v>1.0352649238413776</v>
+        <v>1.0717734625362931</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1239</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D30">
         <v>28</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>4.5620281932386354E-2</v>
+        <v>3.6963321981904475E-2</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>1.023373891996775</v>
+        <v>1.0472941228206267</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1211</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>4.5096288302615826E-2</v>
+        <v>3.6119078541062645E-2</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="2"/>
-        <v>1.0116194403019225</v>
+        <v>1.023373891996775</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1183</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>4.457831325301205E-2</v>
+        <v>3.5294117647058823E-2</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="2"/>
@@ -1335,534 +1368,565 @@
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1156</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D33">
         <v>31</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>4.4066287654285732E-2</v>
+        <v>3.4487998885914563E-2</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="2"/>
-        <v>0.98851402035289615</v>
+        <v>0.97715996843424591</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1130</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D34">
         <v>32</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
-        <v>4.3560143171165182E-2</v>
+        <v>3.3700291902720579E-2</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="2"/>
-        <v>0.97715996843424591</v>
+        <v>0.9548416039104165</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1104</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D35">
         <v>33</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>4.3059812253276243E-2</v>
+        <v>3.293057617188732E-2</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="2"/>
-        <v>0.96593632892484549</v>
+        <v>0.93303299153680741</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1079</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D36">
         <v>34</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>4.2565228126127001E-2</v>
+        <v>3.2178440772642952E-2</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="2"/>
-        <v>0.9548416039104165</v>
+        <v>0.91172248855821691</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1054</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D37">
         <v>35</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>4.2076324782195973E-2</v>
+        <v>3.1443484169659031E-2</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="2"/>
-        <v>0.94387431268169342</v>
+        <v>0.89089871814033927</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1030</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D38">
         <v>36</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v>4.1593036972122743E-2</v>
+        <v>3.0725313998686735E-2</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="2"/>
-        <v>0.93303299153680741</v>
+        <v>0.87055056329612412</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>1006</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D39">
         <v>37</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" si="1"/>
-        <v>4.1115300195999703E-2</v>
+        <v>3.0023546857089023E-2</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="2"/>
-        <v>0.92231619358593919</v>
+        <v>0.85066716095085571</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>983</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D40">
         <v>38</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" si="1"/>
-        <v>4.0643050694763885E-2</v>
+        <v>2.9337808099157214E-2</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="2"/>
-        <v>0.91172248855821691</v>
+        <v>0.83123789614278776</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>961</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D41">
         <v>39</v>
       </c>
       <c r="E41" s="2">
         <f t="shared" si="1"/>
-        <v>4.0176225441687613E-2</v>
+        <v>2.866773163610243E-2</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" si="2"/>
-        <v>0.90125046261083019</v>
+        <v>0.81225239635623547</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>939</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D42">
         <v>40</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" si="1"/>
-        <v>3.9714762133966935E-2</v>
+        <v>2.8012959740615281E-2</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" si="2"/>
-        <v>0.89089871814033927</v>
+        <v>0.79370052598409968</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>917</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D43">
         <v>41</v>
       </c>
       <c r="E43" s="2">
         <f t="shared" si="1"/>
-        <v>3.925859918440662E-2</v>
+        <v>2.7373142855889435E-2</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" si="2"/>
-        <v>0.88066587359614845</v>
+        <v>0.77557238091686731</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>896</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D44">
         <v>42</v>
       </c>
       <c r="E44" s="2">
         <f t="shared" si="1"/>
-        <v>3.8807675713200714E-2</v>
+        <v>2.6747939409007028E-2</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" si="2"/>
-        <v>0.87055056329612412</v>
+        <v>0.75785828325519911</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>876</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D45">
         <v>43</v>
       </c>
       <c r="E45" s="2">
         <f t="shared" si="1"/>
-        <v>3.8361931539807485E-2</v>
+        <v>2.6137015628586426E-2</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" si="2"/>
-        <v>0.86055143724433003</v>
+        <v>0.74054877614328207</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>856</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D46">
         <v>44</v>
       </c>
       <c r="E46" s="2">
         <f t="shared" si="1"/>
-        <v>3.7921307174917665E-2</v>
+        <v>2.5540045366594908E-2</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" si="2"/>
-        <v>0.85066716095085571</v>
+        <v>0.72363461872018908</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>836</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D47">
         <v>45</v>
       </c>
       <c r="E47" s="2">
         <f t="shared" si="1"/>
-        <v>3.7485743812514988E-2</v>
+        <v>2.4956709924231088E-2</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="2"/>
-        <v>0.84089641525371461</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>817</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D48">
         <v>46</v>
       </c>
       <c r="E48" s="2">
         <f t="shared" si="1"/>
-        <v>3.7055183322027889E-2</v>
+        <v>2.4386697881784287E-2</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" si="2"/>
-        <v>0.83123789614278776</v>
+        <v>0.69095643998388812</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>799</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D49">
         <v>47</v>
       </c>
       <c r="E49" s="2">
         <f t="shared" si="1"/>
-        <v>3.6629568240571377E-2</v>
+        <v>2.3829704932379823E-2</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" si="2"/>
-        <v>0.82169031458579023</v>
+        <v>0.67517497308409502</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>780</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D50">
         <v>48</v>
       </c>
       <c r="E50" s="2">
         <f t="shared" si="1"/>
-        <v>3.6208841765277971E-2</v>
+        <v>2.3285433719521666E-2</v>
       </c>
       <c r="F50" s="4">
         <f t="shared" si="2"/>
-        <v>0.81225239635623547</v>
+        <v>0.65975395538644721</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>762</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D51">
         <v>49</v>
       </c>
       <c r="E51" s="2">
         <f t="shared" si="1"/>
-        <v>3.5792947745716786E-2</v>
+        <v>2.2753593678345514E-2</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" si="2"/>
-        <v>0.80292288186337646</v>
+        <v>0.64468515421978956</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>745</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D52">
         <v>50</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="1"/>
-        <v>3.5381830676399627E-2</v>
+        <v>2.2233900880497762E-2</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" si="2"/>
-        <v>0.79370052598409968</v>
+        <v>0.6299605249474366</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>728</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D53">
         <v>51</v>
       </c>
       <c r="E53" s="2">
         <f t="shared" si="1"/>
-        <v>3.4975435689373231E-2</v>
+        <v>2.1726077882557347E-2</v>
       </c>
       <c r="F53" s="4">
         <f t="shared" si="2"/>
-        <v>0.78458409789675077</v>
+        <v>0.61557220667245816</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>711</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D54">
         <v>52</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="1"/>
-        <v>3.4573708546896495E-2</v>
+        <v>2.1229853577919705E-2</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" si="2"/>
-        <v>0.77557238091686731</v>
+        <v>0.60151251804105832</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>695</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D55">
         <v>53</v>
       </c>
       <c r="E55" s="2">
         <f t="shared" si="1"/>
-        <v>3.4176595634201945E-2</v>
+        <v>2.0744963052063681E-2</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" si="2"/>
-        <v>0.76666417233480033</v>
+        <v>0.58777395314180436</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>679</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D56">
         <v>54</v>
       </c>
       <c r="E56" s="2">
         <f t="shared" si="1"/>
-        <v>3.3784043952340199E-2</v>
+        <v>2.0271147441124147E-2</v>
       </c>
       <c r="F56" s="4">
         <f t="shared" si="2"/>
-        <v>0.75785828325519911</v>
+        <v>0.57434917749851755</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>664</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D57">
         <v>55</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="1"/>
-        <v>3.3396001111106757E-2</v>
+        <v>1.9808153793694817E-2</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" si="2"/>
-        <v>0.74915353843834076</v>
+        <v>0.56123102415468651</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>649</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D58">
         <v>56</v>
       </c>
       <c r="E58" s="2">
         <f t="shared" si="1"/>
-        <v>3.3012415322049925E-2</v>
+        <v>1.9355734935787516E-2</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="2"/>
-        <v>0.74054877614328207</v>
+        <v>0.54841248984731295</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>634</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D59">
         <v>57</v>
       </c>
       <c r="E59" s="2">
         <f t="shared" si="1"/>
-        <v>3.2633235391559122E-2</v>
+        <v>1.8913649338875762E-2</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" si="2"/>
-        <v>0.73204284797281272</v>
+        <v>0.53588673126814657</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>619</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D60">
         <v>58</v>
       </c>
       <c r="E60" s="2">
         <f t="shared" si="1"/>
-        <v>3.2258410714032529E-2</v>
+        <v>1.8481660990952237E-2</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" si="2"/>
-        <v>0.72363461872018908</v>
+        <v>0.52364706141031336</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>605</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D61">
         <v>59</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="1"/>
-        <v>3.188789126512323E-2</v>
+        <v>1.8059539270531322E-2</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" si="2"/>
-        <v>0.71532296621762914</v>
+        <v>0.51168694599838749</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>591</v>
+      </c>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D62">
         <v>60</v>
       </c>
       <c r="E62" s="2">
         <f t="shared" si="1"/>
-        <v>3.1521627595062961E-2</v>
+        <v>1.7647058823529412E-2</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" si="2"/>
-        <v>0.70710678118654746</v>
+        <v>0.5</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+        <v>578</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D63" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="2">
         <f>AVERAGE(E3:E62)</f>
-        <v>4.5213921347897743E-2</v>
+        <v>3.7749508780917457E-2</v>
       </c>
       <c r="F63" s="4">
         <f>AVERAGE(F3:F62)</f>
-        <v>1.0142582356420298</v>
+        <v>1.0695694154593278</v>
       </c>
       <c r="G63" s="4">
         <f>AVERAGE(G3:G62)</f>
-        <v>1481.0333333333333</v>
+        <v>1236.4166666666667</v>
       </c>
     </row>
   </sheetData>

--- a/資料/設計書/メモ/モグラ出現率.xlsx
+++ b/資料/設計書/メモ/モグラ出現率.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261F1026-C4C3-4A4B-A009-33EB4ADFC766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A48DD2-B6A6-49F4-8CBC-7385A878A8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8800" xr2:uid="{7EE0F44E-B430-4B0F-8791-8E1E81ABB88B}"/>
+    <workbookView xWindow="1930" yWindow="1540" windowWidth="17270" windowHeight="8800" xr2:uid="{7EE0F44E-B430-4B0F-8791-8E1E81ABB88B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="モグラの出現率" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>出現率</t>
     <rPh sb="0" eb="2">
@@ -263,25 +263,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>出現判断値=RAND_MAX(32767)*出現率</t>
-    <rPh sb="0" eb="2">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>リツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -303,6 +284,39 @@
 (easy:1,normal:2,hard:3)</t>
     <rPh sb="0" eb="3">
       <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出現判断値=RAND_MAX(65535)*出現率</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i_decisionNumberが</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>のときの出現率</t>
+    <rPh sb="4" eb="6">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -311,9 +325,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000%"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -365,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -385,6 +400,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B878D0-B8DE-4C9F-A95E-A6FE00D37595}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -714,9 +732,10 @@
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.4140625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
         <v>4</v>
       </c>
@@ -730,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D2">
         <v>0</v>
       </c>
@@ -743,17 +762,17 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f>INT(32767*E2)</f>
-        <v>2312</v>
+        <f>INT(65535*E2)</f>
+        <v>4626</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -770,15 +789,15 @@
         <v>1.9543199368684918</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G62" si="0">INT(32767*E3)</f>
-        <v>2260</v>
+        <f t="shared" ref="G3:G62" si="0">INT(65535*E3)</f>
+        <v>4520</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -799,11 +818,11 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>2208</v>
+        <v>4417</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -823,11 +842,24 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2158</v>
+        <v>4316</v>
       </c>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>32767</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="7">
+        <f>K5/65535</f>
+        <v>0.49999237048905165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,11 +879,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>2108</v>
+        <v>4217</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,11 +904,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>2060</v>
+        <v>4121</v>
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -897,13 +929,13 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>2013</v>
+        <v>4027</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -921,11 +953,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1967</v>
+        <v>3935</v>
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,11 +977,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>1922</v>
+        <v>3845</v>
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -969,11 +1001,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>1878</v>
+        <v>3757</v>
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D12">
         <v>10</v>
       </c>
@@ -987,11 +1019,11 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>1835</v>
+        <v>3671</v>
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1012,11 +1044,11 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1793</v>
+        <v>3587</v>
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1037,11 +1069,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1752</v>
+        <v>3505</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1062,11 +1094,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>1712</v>
+        <v>3425</v>
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D16">
         <v>14</v>
       </c>
@@ -1080,7 +1112,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>1673</v>
+        <v>3347</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -1098,7 +1130,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>1635</v>
+        <v>3271</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -1116,7 +1148,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>1598</v>
+        <v>3196</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -1134,7 +1166,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>1561</v>
+        <v>3123</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -1152,7 +1184,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>1525</v>
+        <v>3052</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -1170,7 +1202,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>1491</v>
+        <v>2982</v>
       </c>
       <c r="H21" s="6"/>
     </row>
@@ -1188,7 +1220,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>1457</v>
+        <v>2914</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -1206,7 +1238,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>1423</v>
+        <v>2847</v>
       </c>
       <c r="H23" s="6"/>
     </row>
@@ -1224,7 +1256,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>1391</v>
+        <v>2782</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -1242,7 +1274,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>1359</v>
+        <v>2719</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -1260,7 +1292,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>1328</v>
+        <v>2656</v>
       </c>
       <c r="H26" s="6"/>
     </row>
@@ -1278,7 +1310,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>1298</v>
+        <v>2596</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -1296,7 +1328,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>1268</v>
+        <v>2536</v>
       </c>
       <c r="H28" s="6"/>
     </row>
@@ -1314,7 +1346,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>1239</v>
+        <v>2479</v>
       </c>
       <c r="H29" s="6"/>
     </row>
@@ -1332,7 +1364,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>1211</v>
+        <v>2422</v>
       </c>
       <c r="H30" s="6"/>
     </row>
@@ -1350,7 +1382,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>1183</v>
+        <v>2367</v>
       </c>
       <c r="H31" s="6"/>
     </row>
@@ -1368,7 +1400,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>1156</v>
+        <v>2313</v>
       </c>
       <c r="H32" s="6"/>
     </row>
@@ -1386,7 +1418,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>1130</v>
+        <v>2260</v>
       </c>
       <c r="H33" s="6"/>
     </row>
@@ -1404,7 +1436,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>1104</v>
+        <v>2208</v>
       </c>
       <c r="H34" s="6"/>
     </row>
@@ -1422,7 +1454,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>1079</v>
+        <v>2158</v>
       </c>
       <c r="H35" s="6"/>
     </row>
@@ -1440,7 +1472,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>1054</v>
+        <v>2108</v>
       </c>
       <c r="H36" s="6"/>
     </row>
@@ -1458,7 +1490,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>1030</v>
+        <v>2060</v>
       </c>
       <c r="H37" s="6"/>
     </row>
@@ -1476,7 +1508,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>1006</v>
+        <v>2013</v>
       </c>
       <c r="H38" s="6"/>
     </row>
@@ -1494,7 +1526,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>983</v>
+        <v>1967</v>
       </c>
       <c r="H39" s="6"/>
     </row>
@@ -1512,7 +1544,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>961</v>
+        <v>1922</v>
       </c>
       <c r="H40" s="6"/>
     </row>
@@ -1530,7 +1562,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>939</v>
+        <v>1878</v>
       </c>
       <c r="H41" s="6"/>
     </row>
@@ -1548,7 +1580,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>917</v>
+        <v>1835</v>
       </c>
       <c r="H42" s="6"/>
     </row>
@@ -1566,7 +1598,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>896</v>
+        <v>1793</v>
       </c>
       <c r="H43" s="6"/>
     </row>
@@ -1584,7 +1616,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>876</v>
+        <v>1752</v>
       </c>
       <c r="H44" s="6"/>
     </row>
@@ -1602,7 +1634,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>856</v>
+        <v>1712</v>
       </c>
       <c r="H45" s="6"/>
     </row>
@@ -1620,7 +1652,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>836</v>
+        <v>1673</v>
       </c>
       <c r="H46" s="6"/>
     </row>
@@ -1638,7 +1670,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>817</v>
+        <v>1635</v>
       </c>
       <c r="H47" s="6"/>
     </row>
@@ -1656,7 +1688,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>799</v>
+        <v>1598</v>
       </c>
       <c r="H48" s="6"/>
     </row>
@@ -1674,7 +1706,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>780</v>
+        <v>1561</v>
       </c>
       <c r="H49" s="6"/>
     </row>
@@ -1692,7 +1724,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>762</v>
+        <v>1526</v>
       </c>
       <c r="H50" s="6"/>
     </row>
@@ -1710,7 +1742,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>745</v>
+        <v>1491</v>
       </c>
       <c r="H51" s="6"/>
     </row>
@@ -1728,7 +1760,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>728</v>
+        <v>1457</v>
       </c>
       <c r="H52" s="6"/>
     </row>
@@ -1746,7 +1778,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>1423</v>
       </c>
       <c r="H53" s="6"/>
     </row>
@@ -1764,7 +1796,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>1391</v>
       </c>
       <c r="H54" s="6"/>
     </row>
@@ -1782,7 +1814,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>679</v>
+        <v>1359</v>
       </c>
       <c r="H55" s="6"/>
     </row>
@@ -1800,7 +1832,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>664</v>
+        <v>1328</v>
       </c>
       <c r="H56" s="6"/>
     </row>
@@ -1818,7 +1850,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>649</v>
+        <v>1298</v>
       </c>
       <c r="H57" s="6"/>
     </row>
@@ -1836,7 +1868,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>634</v>
+        <v>1268</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -1854,7 +1886,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>619</v>
+        <v>1239</v>
       </c>
       <c r="H59" s="6"/>
     </row>
@@ -1872,7 +1904,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>1211</v>
       </c>
       <c r="H60" s="6"/>
     </row>
@@ -1890,7 +1922,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>591</v>
+        <v>1183</v>
       </c>
       <c r="H61" s="6"/>
     </row>
@@ -1908,7 +1940,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>578</v>
+        <v>1156</v>
       </c>
       <c r="H62" s="6"/>
     </row>
@@ -1926,7 +1958,7 @@
       </c>
       <c r="G63" s="4">
         <f>AVERAGE(G3:G62)</f>
-        <v>1236.4166666666667</v>
+        <v>2473.4666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/資料/設計書/メモ/モグラ出現率.xlsx
+++ b/資料/設計書/メモ/モグラ出現率.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\設計書\メモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A48DD2-B6A6-49F4-8CBC-7385A878A8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFC4DE7-93E3-4923-8059-F271662D6BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1930" yWindow="1540" windowWidth="17270" windowHeight="8800" xr2:uid="{7EE0F44E-B430-4B0F-8791-8E1E81ABB88B}"/>
+    <workbookView xWindow="-3470" yWindow="5320" windowWidth="17270" windowHeight="8800" xr2:uid="{7EE0F44E-B430-4B0F-8791-8E1E81ABB88B}"/>
   </bookViews>
   <sheets>
     <sheet name="モグラの出現率" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>出現率</t>
     <rPh sb="0" eb="2">
@@ -316,6 +316,40 @@
       <t>シュツゲン</t>
     </rPh>
     <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(60</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>x)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出現率(/16bit)</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>リツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -325,10 +359,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000%"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -380,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -403,6 +438,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B878D0-B8DE-4C9F-A95E-A6FE00D37595}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -735,7 +773,7 @@
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" t="s">
         <v>4</v>
       </c>
@@ -749,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D2">
         <v>0</v>
       </c>
@@ -769,8 +807,15 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>(4626/60)*(60-R2)</f>
+        <v>4626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -796,8 +841,15 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S62" si="1">(4626/60)*(60-R3)</f>
+        <v>4548.8999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -809,11 +861,11 @@
         <v>2</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E62" si="1">$B$8*$B$9*2^(($B$10-D4)/60*$B$11)</f>
+        <f t="shared" ref="E4:E62" si="2">$B$8*$B$9*2^(($B$10-D4)/60*$B$11)</f>
         <v>6.7400583805441158E-2</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F62" si="2">2^(($B$10-D4)/60*$B$11)</f>
+        <f t="shared" ref="F4:F62" si="3">2^(($B$10-D4)/60*$B$11)</f>
         <v>1.909683207820833</v>
       </c>
       <c r="G4">
@@ -821,8 +873,15 @@
         <v>4417</v>
       </c>
       <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>4471.7999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -833,11 +892,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.586115234377464E-2</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8660659830736148</v>
       </c>
       <c r="G5">
@@ -858,8 +917,15 @@
         <f>K5/65535</f>
         <v>0.49999237048905165</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>4394.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,11 +936,11 @@
         <v>4</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4356881545285891E-2</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8234449771164336</v>
       </c>
       <c r="G6">
@@ -882,8 +948,15 @@
         <v>4217</v>
       </c>
       <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>4317.5999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,11 +968,11 @@
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2886968339318061E-2</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7817974362806785</v>
       </c>
       <c r="G7">
@@ -907,8 +980,15 @@
         <v>4121</v>
       </c>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>4240.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -920,11 +1000,11 @@
         <v>6</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1450627997373469E-2</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7411011265922482</v>
       </c>
       <c r="G8">
@@ -932,8 +1012,15 @@
         <v>4027</v>
       </c>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>4163.3999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -944,11 +1031,11 @@
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0047093714178046E-2</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7013343219017114</v>
       </c>
       <c r="G9">
@@ -956,8 +1043,15 @@
         <v>3935</v>
       </c>
       <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>4086.2999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,11 +1062,11 @@
         <v>8</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8675616198314427E-2</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6624757922855755</v>
       </c>
       <c r="G10">
@@ -980,8 +1074,15 @@
         <v>3845</v>
       </c>
       <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>4009.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -992,11 +1093,11 @@
         <v>9</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7335463272204859E-2</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6245047927124709</v>
       </c>
       <c r="G11">
@@ -1004,17 +1105,28 @@
         <v>3757</v>
       </c>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11">
+        <f>65536*0.03529</f>
+        <v>2312.7654400000001</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>3932.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6025919481230563E-2</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5874010519681994</v>
       </c>
       <c r="G12">
@@ -1022,8 +1134,19 @@
         <v>3671</v>
       </c>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12">
+        <f>I11/60</f>
+        <v>38.546090666666672</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>3854.9999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1035,11 +1158,11 @@
         <v>11</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4746285711778871E-2</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5511447618337346</v>
       </c>
       <c r="G13">
@@ -1047,8 +1170,15 @@
         <v>3587</v>
       </c>
       <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="R13">
+        <v>11</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>3777.8999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1060,11 +1190,11 @@
         <v>12</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3495878818014049E-2</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.515716566510398</v>
       </c>
       <c r="G14">
@@ -1072,8 +1202,15 @@
         <v>3505</v>
       </c>
       <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="R14">
+        <v>12</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>3700.7999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1085,11 +1222,11 @@
         <v>13</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2274031257172851E-2</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4810975522865641</v>
       </c>
       <c r="G15">
@@ -1097,17 +1234,27 @@
         <v>3425</v>
       </c>
       <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15">
+        <v>13</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>3623.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D16">
         <v>14</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1080090733189809E-2</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4472692374403779</v>
       </c>
       <c r="G16">
@@ -1115,17 +1262,51 @@
         <v>3347</v>
       </c>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16">
+        <v>909</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16">
+        <v>14</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>3546.6</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D17">
         <v>15</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9913419848462183E-2</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4142135623730951</v>
       </c>
       <c r="G17">
@@ -1133,17 +1314,24 @@
         <v>3271</v>
       </c>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R17">
+        <v>15</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>3469.4999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D18">
         <v>16</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8773395763568567E-2</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.381912879967776</v>
       </c>
       <c r="G18">
@@ -1151,17 +1339,24 @@
         <v>3196</v>
       </c>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R18">
+        <v>16</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>3392.3999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D19">
         <v>17</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7659409864759646E-2</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.35034994616819</v>
       </c>
       <c r="G19">
@@ -1169,17 +1364,24 @@
         <v>3123</v>
       </c>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R19">
+        <v>17</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>3315.2999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6570867439043324E-2</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3195079107728942</v>
       </c>
       <c r="G20">
@@ -1187,17 +1389,24 @@
         <v>3052</v>
       </c>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R20">
+        <v>18</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>3238.2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5507187356691028E-2</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2893703084395791</v>
       </c>
       <c r="G21">
@@ -1205,17 +1414,24 @@
         <v>2982</v>
       </c>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R21">
+        <v>19</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>3161.1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D22">
         <v>20</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4467801760995525E-2</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2599210498948732</v>
       </c>
       <c r="G22">
@@ -1223,17 +1439,24 @@
         <v>2914</v>
       </c>
       <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R22">
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D23">
         <v>21</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3452155765114693E-2</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2311444133449163</v>
       </c>
       <c r="G23">
@@ -1241,17 +1464,24 @@
         <v>2847</v>
       </c>
       <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R23">
+        <v>21</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>3006.8999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.245970715583941E-2</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2030250360821166</v>
       </c>
       <c r="G24">
@@ -1259,17 +1489,24 @@
         <v>2782</v>
       </c>
       <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R24">
+        <v>22</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>2929.7999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D25">
         <v>23</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1489926104127363E-2</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1755479062836087</v>
       </c>
       <c r="G25">
@@ -1277,17 +1514,24 @@
         <v>2719</v>
       </c>
       <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R25">
+        <v>23</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>2852.7</v>
+      </c>
+    </row>
+    <row r="26" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D26">
         <v>24</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0542294882248295E-2</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1486983549970351</v>
       </c>
       <c r="G26">
@@ -1295,17 +1539,24 @@
         <v>2656</v>
       </c>
       <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R26">
+        <v>24</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>2775.6</v>
+      </c>
+    </row>
+    <row r="27" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D27">
         <v>25</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9616307587389633E-2</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.122462048309373</v>
       </c>
       <c r="G27">
@@ -1313,17 +1564,24 @@
         <v>2596</v>
       </c>
       <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R27">
+        <v>25</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>2698.5</v>
+      </c>
+    </row>
+    <row r="28" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D28">
         <v>26</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8711469871575033E-2</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0968249796946259</v>
       </c>
       <c r="G28">
@@ -1331,17 +1589,24 @@
         <v>2536</v>
       </c>
       <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R28">
+        <v>26</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>2621.3999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D29">
         <v>27</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7827298677751524E-2</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0717734625362931</v>
       </c>
       <c r="G29">
@@ -1349,17 +1614,24 @@
         <v>2479</v>
       </c>
       <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R29">
+        <v>27</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>2544.2999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D30">
         <v>28</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6963321981904475E-2</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0472941228206267</v>
       </c>
       <c r="G30">
@@ -1367,17 +1639,24 @@
         <v>2422</v>
       </c>
       <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R30">
+        <v>28</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>2467.1999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D31">
         <v>29</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6119078541062645E-2</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.023373891996775</v>
       </c>
       <c r="G31">
@@ -1385,17 +1664,24 @@
         <v>2367</v>
       </c>
       <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R31">
+        <v>29</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>2390.1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D32">
         <v>30</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5294117647058823E-2</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G32">
@@ -1403,17 +1689,24 @@
         <v>2313</v>
       </c>
       <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R32">
+        <v>30</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D33">
         <v>31</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4487998885914563E-2</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.97715996843424591</v>
       </c>
       <c r="G33">
@@ -1421,17 +1714,24 @@
         <v>2260</v>
       </c>
       <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R33">
+        <v>31</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>2235.8999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D34">
         <v>32</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3700291902720579E-2</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9548416039104165</v>
       </c>
       <c r="G34">
@@ -1439,17 +1739,24 @@
         <v>2208</v>
       </c>
       <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R34">
+        <v>32</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>2158.7999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D35">
         <v>33</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.293057617188732E-2</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93303299153680741</v>
       </c>
       <c r="G35">
@@ -1457,17 +1764,24 @@
         <v>2158</v>
       </c>
       <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R35">
+        <v>33</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>2081.6999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D36">
         <v>34</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2178440772642952E-2</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91172248855821691</v>
       </c>
       <c r="G36">
@@ -1475,17 +1789,24 @@
         <v>2108</v>
       </c>
       <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R36">
+        <v>34</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>2004.6</v>
+      </c>
+    </row>
+    <row r="37" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D37">
         <v>35</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1443484169659031E-2</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89089871814033927</v>
       </c>
       <c r="G37">
@@ -1493,17 +1814,24 @@
         <v>2060</v>
       </c>
       <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R37">
+        <v>35</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>1927.4999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D38">
         <v>36</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0725313998686735E-2</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87055056329612412</v>
       </c>
       <c r="G38">
@@ -1511,17 +1839,24 @@
         <v>2013</v>
       </c>
       <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R38">
+        <v>36</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>1850.3999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D39">
         <v>37</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0023546857089023E-2</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85066716095085571</v>
       </c>
       <c r="G39">
@@ -1529,17 +1864,24 @@
         <v>1967</v>
       </c>
       <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R39">
+        <v>37</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="1"/>
+        <v>1773.3</v>
+      </c>
+    </row>
+    <row r="40" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D40">
         <v>38</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9337808099157214E-2</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83123789614278776</v>
       </c>
       <c r="G40">
@@ -1547,17 +1889,24 @@
         <v>1922</v>
       </c>
       <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R40">
+        <v>38</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="1"/>
+        <v>1696.1999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D41">
         <v>39</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.866773163610243E-2</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.81225239635623547</v>
       </c>
       <c r="G41">
@@ -1565,17 +1914,24 @@
         <v>1878</v>
       </c>
       <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R41">
+        <v>39</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="1"/>
+        <v>1619.1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D42">
         <v>40</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8012959740615281E-2</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.79370052598409968</v>
       </c>
       <c r="G42">
@@ -1583,17 +1939,24 @@
         <v>1835</v>
       </c>
       <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R42">
+        <v>40</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="1"/>
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="43" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D43">
         <v>41</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7373142855889435E-2</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77557238091686731</v>
       </c>
       <c r="G43">
@@ -1601,17 +1964,24 @@
         <v>1793</v>
       </c>
       <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R43">
+        <v>41</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="1"/>
+        <v>1464.8999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D44">
         <v>42</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6747939409007028E-2</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75785828325519911</v>
       </c>
       <c r="G44">
@@ -1619,17 +1989,24 @@
         <v>1752</v>
       </c>
       <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R44">
+        <v>42</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="1"/>
+        <v>1387.8</v>
+      </c>
+    </row>
+    <row r="45" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D45">
         <v>43</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6137015628586426E-2</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74054877614328207</v>
       </c>
       <c r="G45">
@@ -1637,17 +2014,24 @@
         <v>1712</v>
       </c>
       <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R45">
+        <v>43</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="1"/>
+        <v>1310.6999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D46">
         <v>44</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5540045366594908E-2</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.72363461872018908</v>
       </c>
       <c r="G46">
@@ -1655,17 +2039,24 @@
         <v>1673</v>
       </c>
       <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R46">
+        <v>44</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="1"/>
+        <v>1233.5999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D47">
         <v>45</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4956709924231088E-2</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70710678118654746</v>
       </c>
       <c r="G47">
@@ -1673,17 +2064,24 @@
         <v>1635</v>
       </c>
       <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R47">
+        <v>45</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="1"/>
+        <v>1156.5</v>
+      </c>
+    </row>
+    <row r="48" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D48">
         <v>46</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4386697881784287E-2</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69095643998388812</v>
       </c>
       <c r="G48">
@@ -1691,17 +2089,24 @@
         <v>1598</v>
       </c>
       <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R48">
+        <v>46</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="1"/>
+        <v>1079.3999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D49">
         <v>47</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3829704932379823E-2</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.67517497308409502</v>
       </c>
       <c r="G49">
@@ -1709,17 +2114,24 @@
         <v>1561</v>
       </c>
       <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R49">
+        <v>47</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="1"/>
+        <v>1002.3</v>
+      </c>
+    </row>
+    <row r="50" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D50">
         <v>48</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3285433719521666E-2</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.65975395538644721</v>
       </c>
       <c r="G50">
@@ -1727,17 +2139,24 @@
         <v>1526</v>
       </c>
       <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R50">
+        <v>48</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="1"/>
+        <v>925.19999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D51">
         <v>49</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2753593678345514E-2</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64468515421978956</v>
       </c>
       <c r="G51">
@@ -1745,17 +2164,24 @@
         <v>1491</v>
       </c>
       <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R51">
+        <v>49</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="1"/>
+        <v>848.09999999999991</v>
+      </c>
+    </row>
+    <row r="52" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D52">
         <v>50</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2233900880497762E-2</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.6299605249474366</v>
       </c>
       <c r="G52">
@@ -1763,17 +2189,24 @@
         <v>1457</v>
       </c>
       <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R52">
+        <v>50</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="1"/>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="53" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D53">
         <v>51</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1726077882557347E-2</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.61557220667245816</v>
       </c>
       <c r="G53">
@@ -1781,17 +2214,24 @@
         <v>1423</v>
       </c>
       <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R53">
+        <v>51</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="1"/>
+        <v>693.9</v>
+      </c>
+    </row>
+    <row r="54" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D54">
         <v>52</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1229853577919705E-2</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60151251804105832</v>
       </c>
       <c r="G54">
@@ -1799,17 +2239,24 @@
         <v>1391</v>
       </c>
       <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R54">
+        <v>52</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="1"/>
+        <v>616.79999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D55">
         <v>53</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0744963052063681E-2</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58777395314180436</v>
       </c>
       <c r="G55">
@@ -1817,17 +2264,24 @@
         <v>1359</v>
       </c>
       <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R55">
+        <v>53</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="1"/>
+        <v>539.69999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D56">
         <v>54</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0271147441124147E-2</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57434917749851755</v>
       </c>
       <c r="G56">
@@ -1835,17 +2289,24 @@
         <v>1328</v>
       </c>
       <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R56">
+        <v>54</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="1"/>
+        <v>462.59999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D57">
         <v>55</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9808153793694817E-2</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56123102415468651</v>
       </c>
       <c r="G57">
@@ -1853,17 +2314,24 @@
         <v>1298</v>
       </c>
       <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R57">
+        <v>55</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="1"/>
+        <v>385.5</v>
+      </c>
+    </row>
+    <row r="58" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D58">
         <v>56</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9355734935787516E-2</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54841248984731295</v>
       </c>
       <c r="G58">
@@ -1871,17 +2339,24 @@
         <v>1268</v>
       </c>
       <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R58">
+        <v>56</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="1"/>
+        <v>308.39999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D59">
         <v>57</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8913649338875762E-2</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53588673126814657</v>
       </c>
       <c r="G59">
@@ -1889,17 +2364,24 @@
         <v>1239</v>
       </c>
       <c r="H59" s="6"/>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R59">
+        <v>57</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="1"/>
+        <v>231.29999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D60">
         <v>58</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8481660990952237E-2</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52364706141031336</v>
       </c>
       <c r="G60">
@@ -1907,17 +2389,24 @@
         <v>1211</v>
       </c>
       <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R60">
+        <v>58</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="1"/>
+        <v>154.19999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D61">
         <v>59</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8059539270531322E-2</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.51168694599838749</v>
       </c>
       <c r="G61">
@@ -1925,17 +2414,24 @@
         <v>1183</v>
       </c>
       <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R61">
+        <v>59</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="1"/>
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D62">
         <v>60</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7647058823529412E-2</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="G62">
@@ -1943,8 +2439,15 @@
         <v>1156</v>
       </c>
       <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="R62">
+        <v>60</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:19" x14ac:dyDescent="0.55000000000000004">
       <c r="D63" t="s">
         <v>5</v>
       </c>
@@ -1964,6 +2467,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>